--- a/xlsx/神权政治_intext.xlsx
+++ b/xlsx/神权政治_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>政策_政策_政治_神权政治</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -155,19 +155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99%E6%B3%95</t>
@@ -263,25 +263,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭共和國</t>
+    <t>伊朗伊斯兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97</t>
@@ -317,19 +317,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC</t>
   </si>
   <si>
-    <t>哈里發</t>
+    <t>哈里发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E8%81%96%E5%9C%B0%E7%9B%A3%E8%AD%B7%E4%BA%BA</t>
   </si>
   <si>
-    <t>兩聖地監護人</t>
+    <t>两圣地监护人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%8E%9B%E7%9B%AE</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>精神領袖</t>
+    <t>精神领袖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A%E5%9C%A3%E7%BB%9F%E5%88%B6</t>
@@ -365,31 +365,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%95%99%E5%BB%B7</t>
   </si>
   <si>
-    <t>羅馬教廷</t>
+    <t>罗马教廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E7%BE%85%E9%A6%AC%E6%95%99%E5%8D%80</t>
   </si>
   <si>
-    <t>天主教羅馬教區</t>
+    <t>天主教罗马教区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E6%A9%9F%E5%9C%98</t>
   </si>
   <si>
-    <t>樞機團</t>
+    <t>枢机团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%9E%E6%A9%9F</t>
   </si>
   <si>
-    <t>樞機</t>
+    <t>枢机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%9B%BD</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92%E7%B5%B1%E7%B7%92</t>
   </si>
   <si>
-    <t>使徒統緒</t>
+    <t>使徒统绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97_(%E4%BD%BF%E5%BE%92)</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%9A%87%E7%84%A1%E8%AC%AC%E8%AA%A4</t>
   </si>
   <si>
-    <t>教皇無謬誤</t>
+    <t>教皇无谬误</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Magisterium</t>
@@ -461,25 +461,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E5%8D%81%E4%BD%8D%E5%9C%A8%E4%BD%8D%E6%99%82%E9%96%93%E6%9C%80%E9%95%B7%E7%9A%84%E6%95%99%E5%AE%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>頭十位在位時間最長的教宗列表</t>
+    <t>头十位在位时间最长的教宗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E5%8D%81%E4%BD%8D%E5%9C%A8%E4%BD%8D%E6%99%82%E9%96%93%E6%9C%80%E7%9F%AD%E7%9A%84%E6%95%99%E5%AE%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>頭十位在位時間最短的教宗列表</t>
+    <t>头十位在位时间最短的教宗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%AB%8B%E6%95%99%E5%AE%97</t>
   </si>
   <si>
-    <t>對立教宗</t>
+    <t>对立教宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AD%98%E6%95%99%E5%AE%97%E5%A1%9A%E5%A2%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>現存教宗塚墓列表</t>
+    <t>现存教宗冢墓列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E9%80%89%E4%B8%BE</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E8%BE%AD%E8%81%B7</t>
   </si>
   <si>
-    <t>教宗辭職</t>
+    <t>教宗辞职</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Papal_inauguration</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%90%98%E7%B6%93</t>
   </si>
   <si>
-    <t>三鐘經</t>
+    <t>三钟经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E7%89%A7%E5%BE%BD</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E6%AC%8A%E6%9D%96</t>
   </si>
   <si>
-    <t>教宗權杖</t>
+    <t>教宗权杖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%94%E4%BA%BA%E6%9D%83%E6%88%92</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%A8%E5%B8%BD_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>絨帽 (教宗)</t>
+    <t>绒帽 (教宗)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cope</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%B4%9A%E5%AE%97%E5%BA%A7%E8%81%96%E6%AE%BF</t>
   </si>
   <si>
-    <t>特級宗座聖殿</t>
+    <t>特级宗座圣殿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%89%B9%E6%9C%97%E5%9C%A3%E8%8B%A5%E6%9C%9B%E5%A4%A7%E6%AE%BF</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BC%AF%E5%A4%9A%E7%A5%BF%E5%A4%A7%E6%AE%BF</t>
   </si>
   <si>
-    <t>聖伯多祿大殿</t>
+    <t>圣伯多禄大殿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%A4%96%E5%9C%A3%E4%BF%9D%E7%A6%84%E5%A4%A7%E6%AE%BF</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BC%AF%E5%A4%9A%E7%A5%BF%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>聖伯多祿廣場</t>
+    <t>圣伯多禄广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%AF%E5%BB%B7%E5%B0%8F%E5%A0%82</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%BE%A1%E8%BD%8E</t>
   </si>
   <si>
-    <t>教宗御轎</t>
+    <t>教宗御轿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E5%BA%A7%E9%A9%BE</t>
@@ -695,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%BA%A7%E6%86%B2%E4%BB%A4</t>
   </si>
   <si>
-    <t>宗座憲令</t>
+    <t>宗座宪令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%AB%AD</t>
   </si>
   <si>
-    <t>通諭</t>
+    <t>通谕</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/apostolic_letter</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E6%89%8B%E8%AB%AD</t>
   </si>
   <si>
-    <t>自動手諭</t>
+    <t>自动手谕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8E%86%E5%8F%B2</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>聖座外交</t>
+    <t>圣座外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AE%E5%AD%90%E4%B8%95%E5%B9%B3</t>
@@ -737,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B6%AD%E8%BE%B2%E6%95%99%E5%BB%B7</t>
   </si>
   <si>
-    <t>亞維農教廷</t>
+    <t>亚维农教廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E4%B9%8B%E5%8A%AB_(1527%E5%B9%B4)</t>
   </si>
   <si>
-    <t>羅馬之劫 (1527年)</t>
+    <t>罗马之劫 (1527年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88%E5%9B%9A%E5%BE%92</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E8%A8%93%E4%BB%A4</t>
   </si>
   <si>
-    <t>教宗訓令</t>
+    <t>教宗训令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E5%BA%A7%E7%BC%BA%E5%87%BA%E8%AE%BA</t>
@@ -779,25 +779,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E9%A0%90%E8%A8%80</t>
   </si>
   <si>
-    <t>教宗預言</t>
+    <t>教宗预言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%92%82%E7%91%AA%E7%9A%84%E4%B8%89%E5%80%8B%E7%A7%98%E5%AF%86</t>
   </si>
   <si>
-    <t>法蒂瑪的三個秘密</t>
+    <t>法蒂玛的三个秘密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%95%99%E5%AE%97%E7%93%8A%E5%AE%89</t>
   </si>
   <si>
-    <t>女教宗瓊安</t>
+    <t>女教宗琼安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>

--- a/xlsx/神权政治_intext.xlsx
+++ b/xlsx/神权政治_intext.xlsx
@@ -29,7 +29,7 @@
     <t>政體</t>
   </si>
   <si>
-    <t>政策_政策_政治_神权政治</t>
+    <t>体育运动_体育运动_伊朗_神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
